--- a/data/trans_orig/P20B-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P20B-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>7175</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3375</v>
+        <v>3498</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12295</v>
+        <v>12158</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2290259390893945</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.107726003613008</v>
+        <v>0.1116510823344828</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3924333026493877</v>
+        <v>0.388069003104207</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -765,19 +765,19 @@
         <v>12515</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6730</v>
+        <v>7466</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20157</v>
+        <v>19782</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1487148915531517</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07997097173804774</v>
+        <v>0.08872699511747971</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2395362351872377</v>
+        <v>0.2350831688495983</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -786,19 +786,19 @@
         <v>19689</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12757</v>
+        <v>12770</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28881</v>
+        <v>28309</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1705028460767508</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1104745509318938</v>
+        <v>0.1105817947487799</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2500940374285216</v>
+        <v>0.2451468193630794</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>24154</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19034</v>
+        <v>19171</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27954</v>
+        <v>27831</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7709740609106055</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6075666973506122</v>
+        <v>0.6119309968957929</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8922739963869919</v>
+        <v>0.8883489176655173</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>67</v>
@@ -836,19 +836,19 @@
         <v>71636</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>63994</v>
+        <v>64369</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>77421</v>
+        <v>76685</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8512851084468483</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7604637648127622</v>
+        <v>0.7649168311504017</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9200290282619523</v>
+        <v>0.9112730048825203</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>91</v>
@@ -857,19 +857,19 @@
         <v>95790</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>86598</v>
+        <v>87170</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>102722</v>
+        <v>102709</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8294971539232492</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7499059625714791</v>
+        <v>0.7548531806369208</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8895254490681063</v>
+        <v>0.8894182052512203</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>13777</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8641</v>
+        <v>8425</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19741</v>
+        <v>19648</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3520063818536557</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2207665033397987</v>
+        <v>0.2152647363037156</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.50437405644904</v>
+        <v>0.5019983441891279</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -982,19 +982,19 @@
         <v>17310</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10784</v>
+        <v>11288</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24498</v>
+        <v>25023</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2835860009077908</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1766657052975816</v>
+        <v>0.1849201705784197</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.401330599111991</v>
+        <v>0.409939138459355</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -1003,19 +1003,19 @@
         <v>31088</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23424</v>
+        <v>22072</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41413</v>
+        <v>40298</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3103171189496639</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2338215659543401</v>
+        <v>0.2203230422566957</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4133866036858002</v>
+        <v>0.4022577156952553</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>25362</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19398</v>
+        <v>19491</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30498</v>
+        <v>30714</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6479936181463443</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4956259435509601</v>
+        <v>0.4980016558108718</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7792334966602013</v>
+        <v>0.7847352636962842</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>41</v>
@@ -1053,19 +1053,19 @@
         <v>43731</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36543</v>
+        <v>36018</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50257</v>
+        <v>49753</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7164139990922093</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.598669400888009</v>
+        <v>0.5900608615406453</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8233342947024184</v>
+        <v>0.8150798294215803</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>68</v>
@@ -1074,19 +1074,19 @@
         <v>69092</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>58767</v>
+        <v>59882</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>76756</v>
+        <v>78108</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6896828810503361</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5866133963141998</v>
+        <v>0.5977422843047445</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7661784340456598</v>
+        <v>0.7796769577433043</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>10445</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6066</v>
+        <v>5355</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16774</v>
+        <v>16081</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2696811730191407</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1566075903396447</v>
+        <v>0.1382650759489499</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4330945642070291</v>
+        <v>0.4151901046534557</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1199,19 +1199,19 @@
         <v>15308</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9203</v>
+        <v>9230</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23075</v>
+        <v>22805</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1997505450329898</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1200927151369268</v>
+        <v>0.1204385612777417</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3011121966038456</v>
+        <v>0.2975780223444885</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -1220,19 +1220,19 @@
         <v>25753</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17489</v>
+        <v>17243</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34375</v>
+        <v>34755</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2232278442037612</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1516010183030023</v>
+        <v>0.149460610270976</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2979707878675004</v>
+        <v>0.3012604681975491</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>28286</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21957</v>
+        <v>22650</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32665</v>
+        <v>33376</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7303188269808593</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5669054357929708</v>
+        <v>0.5848098953465439</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8433924096603553</v>
+        <v>0.86173492405105</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>60</v>
@@ -1270,19 +1270,19 @@
         <v>61326</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>53559</v>
+        <v>53829</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>67431</v>
+        <v>67404</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8002494549670102</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.698887803396154</v>
+        <v>0.7024219776555117</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8799072848630731</v>
+        <v>0.8795614387222583</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>87</v>
@@ -1291,19 +1291,19 @@
         <v>89612</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>80990</v>
+        <v>80610</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>97876</v>
+        <v>98122</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7767721557962388</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7020292121324996</v>
+        <v>0.6987395318024507</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8483989816969977</v>
+        <v>0.8505393897290238</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>3766</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1076</v>
+        <v>936</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7837</v>
+        <v>8729</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1754428046114635</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05014022933407038</v>
+        <v>0.04358650173981592</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3651134633864228</v>
+        <v>0.4066584829482706</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1416,19 +1416,19 @@
         <v>3037</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>750</v>
+        <v>909</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7349</v>
+        <v>7299</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.148375330809637</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03665825040541258</v>
+        <v>0.04440986516379661</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3590499463241208</v>
+        <v>0.3565984021917708</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1437,19 +1437,19 @@
         <v>6803</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2973</v>
+        <v>2981</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13088</v>
+        <v>12048</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1622301894954958</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07088887692818983</v>
+        <v>0.07109490767715836</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3121269712346792</v>
+        <v>0.2873253807319121</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>17698</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13627</v>
+        <v>12735</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20388</v>
+        <v>20528</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8245571953885364</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6348865366135771</v>
+        <v>0.5933415170517293</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9498597706659296</v>
+        <v>0.9564134982601841</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -1487,19 +1487,19 @@
         <v>17432</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13120</v>
+        <v>13170</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19719</v>
+        <v>19560</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8516246691903631</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6409500536758792</v>
+        <v>0.6434015978082289</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9633417495945857</v>
+        <v>0.9555901348362034</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -1508,19 +1508,19 @@
         <v>35130</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>28845</v>
+        <v>29885</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38960</v>
+        <v>38952</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8377698105045043</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6878730287653209</v>
+        <v>0.7126746192680878</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9291111230718102</v>
+        <v>0.9289050923228416</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>35163</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25653</v>
+        <v>25720</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46032</v>
+        <v>45389</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2691129948149552</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1963268852059614</v>
+        <v>0.1968388338489838</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3522973448318406</v>
+        <v>0.3473716271979972</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>50</v>
@@ -1633,19 +1633,19 @@
         <v>48170</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36428</v>
+        <v>37843</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60285</v>
+        <v>61501</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1988059596284118</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1503476516006583</v>
+        <v>0.1561860921799026</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2488102268999672</v>
+        <v>0.2538284565214185</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>87</v>
@@ -1654,19 +1654,19 @@
         <v>83333</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>68798</v>
+        <v>67481</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>102738</v>
+        <v>98912</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.223437496732157</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1844662444128358</v>
+        <v>0.1809357002144929</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.275468110243343</v>
+        <v>0.2652085982137758</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>95500</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>84631</v>
+        <v>85274</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>105010</v>
+        <v>104943</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7308870051850448</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6477026551681595</v>
+        <v>0.6526283728020028</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8036731147940386</v>
+        <v>0.8031611661510162</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>185</v>
@@ -1704,19 +1704,19 @@
         <v>194125</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>182010</v>
+        <v>180794</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>205867</v>
+        <v>204452</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8011940403715881</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7511897731000328</v>
+        <v>0.7461715434785812</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8496523483993418</v>
+        <v>0.8438139078200972</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>280</v>
@@ -1725,19 +1725,19 @@
         <v>289625</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>270220</v>
+        <v>274046</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>304160</v>
+        <v>305477</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.776562503267843</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7245318897566579</v>
+        <v>0.734791401786224</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8155337555871642</v>
+        <v>0.8190642997855071</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>24419</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16683</v>
+        <v>17346</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34523</v>
+        <v>34359</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2703151512481187</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1846805423577095</v>
+        <v>0.1920178507495876</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3821662611834963</v>
+        <v>0.3803443497620485</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -2090,19 +2090,19 @@
         <v>29962</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20773</v>
+        <v>21047</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40016</v>
+        <v>40758</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2268927774673138</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1573079439579219</v>
+        <v>0.1593814730194224</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3030269653980181</v>
+        <v>0.308646785020846</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -2111,19 +2111,19 @@
         <v>54382</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41838</v>
+        <v>42690</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>68657</v>
+        <v>68236</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2445310420725651</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1881282721868994</v>
+        <v>0.1919604523921229</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3087212124346345</v>
+        <v>0.306830534998222</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>65917</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>55813</v>
+        <v>55977</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>73653</v>
+        <v>72990</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7296848487518813</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6178337388165037</v>
+        <v>0.6196556502379519</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8153194576422903</v>
+        <v>0.8079821492504125</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>95</v>
@@ -2161,19 +2161,19 @@
         <v>102093</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>92039</v>
+        <v>91297</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>111282</v>
+        <v>111008</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7731072225326863</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6969730346019818</v>
+        <v>0.691353214979154</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8426920560420773</v>
+        <v>0.840618526980579</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>155</v>
@@ -2182,19 +2182,19 @@
         <v>168009</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>153734</v>
+        <v>154155</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>180553</v>
+        <v>179701</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.755468957927435</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6912787875653654</v>
+        <v>0.6931694650017778</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8118717278131006</v>
+        <v>0.8080395476078771</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>13270</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7275</v>
+        <v>6992</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21506</v>
+        <v>20808</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3067814561381402</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1681809850433124</v>
+        <v>0.1616420731208796</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4971840633785404</v>
+        <v>0.4810487070547841</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -2307,19 +2307,19 @@
         <v>25866</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16716</v>
+        <v>16494</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36175</v>
+        <v>36876</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2308025135052895</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1491617485913627</v>
+        <v>0.1471764082289689</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3227921035360913</v>
+        <v>0.3290542985077096</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -2328,19 +2328,19 @@
         <v>39135</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29215</v>
+        <v>27787</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52628</v>
+        <v>51132</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2519613347138943</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1880913915474133</v>
+        <v>0.1788957941128388</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3388322863122196</v>
+        <v>0.3292002315605362</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>29985</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>21749</v>
+        <v>22447</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>35980</v>
+        <v>36263</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6932185438618598</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5028159366214597</v>
+        <v>0.5189512929452162</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8318190149566876</v>
+        <v>0.8383579268791224</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>81</v>
@@ -2378,19 +2378,19 @@
         <v>86202</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>75893</v>
+        <v>75192</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>95352</v>
+        <v>95574</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7691974864947105</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6772078964639087</v>
+        <v>0.6709457014922905</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.850838251408637</v>
+        <v>0.8528235917710311</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>109</v>
@@ -2399,19 +2399,19 @@
         <v>116188</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>102695</v>
+        <v>104191</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>126108</v>
+        <v>127536</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7480386652861057</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6611677136877804</v>
+        <v>0.6707997684394641</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8119086084525867</v>
+        <v>0.8211042058871613</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>13449</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8188</v>
+        <v>8146</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20438</v>
+        <v>19702</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3238568505380426</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1971735670811824</v>
+        <v>0.1961586156260254</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4921385274647052</v>
+        <v>0.4744189937813811</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -2524,19 +2524,19 @@
         <v>17160</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10380</v>
+        <v>10722</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24566</v>
+        <v>24253</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3320642933019197</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2008674394282563</v>
+        <v>0.2074835406652222</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4753593809915751</v>
+        <v>0.4693184724790578</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -2545,19 +2545,19 @@
         <v>30610</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21972</v>
+        <v>22524</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40026</v>
+        <v>40531</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3284074855911324</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2357362057442371</v>
+        <v>0.2416575475013066</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4294329085840463</v>
+        <v>0.4348589290629835</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>28079</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21090</v>
+        <v>21826</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33340</v>
+        <v>33382</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6761431494619574</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5078614725352951</v>
+        <v>0.5255810062186188</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8028264329188176</v>
+        <v>0.8038413843739747</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>33</v>
@@ -2595,19 +2595,19 @@
         <v>34518</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>27112</v>
+        <v>27425</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41298</v>
+        <v>40956</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6679357066980803</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.524640619008425</v>
+        <v>0.5306815275209422</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7991325605717441</v>
+        <v>0.7925164593347778</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>61</v>
@@ -2616,19 +2616,19 @@
         <v>62596</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>53180</v>
+        <v>52675</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>71234</v>
+        <v>70682</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6715925144088676</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5705670914159537</v>
+        <v>0.5651410709370166</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.764263794255763</v>
+        <v>0.7583424524986935</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>10616</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5448</v>
+        <v>5733</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16943</v>
+        <v>16429</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.325179171098681</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1668864327887609</v>
+        <v>0.1755945179628093</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5189614081079091</v>
+        <v>0.5032257742066716</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -2741,19 +2741,19 @@
         <v>9275</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4184</v>
+        <v>4985</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14982</v>
+        <v>15996</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2394516389833203</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1080202509161343</v>
+        <v>0.1286867869677197</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3867839603362833</v>
+        <v>0.4129491586793353</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -2762,19 +2762,19 @@
         <v>19891</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12530</v>
+        <v>12978</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28513</v>
+        <v>28132</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2786596011697388</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1755410093666027</v>
+        <v>0.1818176707747444</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3994520732987016</v>
+        <v>0.3941059823455452</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>22031</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15704</v>
+        <v>16218</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27199</v>
+        <v>26914</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.674820828901319</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4810385918920907</v>
+        <v>0.4967742257933283</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8331135672112393</v>
+        <v>0.8244054820371904</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -2812,19 +2812,19 @@
         <v>29460</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>23753</v>
+        <v>22739</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34551</v>
+        <v>33750</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7605483610166797</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6132160396637167</v>
+        <v>0.5870508413206648</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8919797490838657</v>
+        <v>0.8713132130322804</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>46</v>
@@ -2833,19 +2833,19 @@
         <v>51490</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>42868</v>
+        <v>43249</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>58851</v>
+        <v>58403</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7213403988302612</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6005479267012982</v>
+        <v>0.6058940176544563</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8244589906333971</v>
+        <v>0.8181823292252556</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>61754</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>49474</v>
+        <v>48452</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>76254</v>
+        <v>75649</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2972298742433067</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2381225695088485</v>
+        <v>0.2332073644216135</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3670184161146139</v>
+        <v>0.3641066265390796</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>75</v>
@@ -2958,19 +2958,19 @@
         <v>82264</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>66852</v>
+        <v>65152</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>98032</v>
+        <v>98637</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2459032968918332</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1998354733789942</v>
+        <v>0.1947541617069954</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2930387831503881</v>
+        <v>0.2948484358868057</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>132</v>
@@ -2979,19 +2979,19 @@
         <v>144017</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>123985</v>
+        <v>124098</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>165040</v>
+        <v>166381</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2655673836358959</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2286282771276149</v>
+        <v>0.2288367072288141</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.304331994952572</v>
+        <v>0.3068053905934142</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>146011</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>131511</v>
+        <v>132116</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>158291</v>
+        <v>159313</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7027701257566933</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6329815838853863</v>
+        <v>0.6358933734609205</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7618774304911515</v>
+        <v>0.7667926355783864</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>236</v>
@@ -3029,19 +3029,19 @@
         <v>252272</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>236504</v>
+        <v>235899</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>267684</v>
+        <v>269384</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7540967031081668</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.706961216849612</v>
+        <v>0.7051515641131941</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8001645266210058</v>
+        <v>0.8052458382930046</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>371</v>
@@ -3050,19 +3050,19 @@
         <v>398284</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>377261</v>
+        <v>375920</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>418316</v>
+        <v>418203</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7344326163641042</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6956680050474281</v>
+        <v>0.6931946094065858</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7713717228723851</v>
+        <v>0.771163292771186</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>18731</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11633</v>
+        <v>12029</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27132</v>
+        <v>26670</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.335155585820367</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.208160810203825</v>
+        <v>0.2152363359657179</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4854791677665168</v>
+        <v>0.4772084910588352</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -3415,19 +3415,19 @@
         <v>20587</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13356</v>
+        <v>12830</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30681</v>
+        <v>29542</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2021054053268188</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1311186238364821</v>
+        <v>0.1259587004456212</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3012043699962751</v>
+        <v>0.2900196426344855</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -3436,19 +3436,19 @@
         <v>39318</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29226</v>
+        <v>28675</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51914</v>
+        <v>51382</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2492419165669706</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.185267504427516</v>
+        <v>0.1817761277821595</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3290939108681641</v>
+        <v>0.3257207365515614</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>37156</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28755</v>
+        <v>29217</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44254</v>
+        <v>43858</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.664844414179633</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5145208322334833</v>
+        <v>0.5227915089411646</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7918391897961748</v>
+        <v>0.784763664034282</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>73</v>
@@ -3486,19 +3486,19 @@
         <v>81275</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>71181</v>
+        <v>72320</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>88506</v>
+        <v>89032</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7978945946731811</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6987956300037249</v>
+        <v>0.7099803573655146</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.868881376163518</v>
+        <v>0.8740412995543793</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>106</v>
@@ -3507,19 +3507,19 @@
         <v>118431</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>105835</v>
+        <v>106367</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>128523</v>
+        <v>129074</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7507580834330294</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6709060891318362</v>
+        <v>0.6742792634484386</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8147324955724841</v>
+        <v>0.8182238722178404</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>13716</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8589</v>
+        <v>8593</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20698</v>
+        <v>20068</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3205714262368076</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2007380673687973</v>
+        <v>0.2008371116944346</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4837640481272611</v>
+        <v>0.4690416331139731</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -3632,19 +3632,19 @@
         <v>21098</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14019</v>
+        <v>12493</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29639</v>
+        <v>29527</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2854043285029172</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1896433289643839</v>
+        <v>0.1690023265580929</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4009392333950828</v>
+        <v>0.3994281961502285</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -3653,19 +3653,19 @@
         <v>34814</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25521</v>
+        <v>24667</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46672</v>
+        <v>44868</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2982966815765375</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.218671297658832</v>
+        <v>0.21135054603198</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3999040576157779</v>
+        <v>0.3844408214763603</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>29070</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>22088</v>
+        <v>22718</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>34197</v>
+        <v>34193</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6794285737631923</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5162359518727387</v>
+        <v>0.5309583668860272</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7992619326312026</v>
+        <v>0.7991628883055656</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>48</v>
@@ -3703,19 +3703,19 @@
         <v>52825</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>44284</v>
+        <v>44396</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>59904</v>
+        <v>61430</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7145956714970828</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5990607666049167</v>
+        <v>0.6005718038497719</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8103566710356161</v>
+        <v>0.8309976734419072</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>76</v>
@@ -3724,19 +3724,19 @@
         <v>81895</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>70037</v>
+        <v>71841</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>91188</v>
+        <v>92042</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7017033184234625</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.600095942384222</v>
+        <v>0.6155591785236395</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7813287023411678</v>
+        <v>0.7886494539680198</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>18340</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12873</v>
+        <v>12074</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24504</v>
+        <v>25114</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4640665741426585</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3257289281743191</v>
+        <v>0.3055176793788249</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6200270155746384</v>
+        <v>0.6354531534563098</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -3849,19 +3849,19 @@
         <v>14129</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7924</v>
+        <v>8447</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21861</v>
+        <v>22097</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2283971574058011</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1280920661779738</v>
+        <v>0.1365558052519854</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3533894971344278</v>
+        <v>0.3572060918263731</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -3870,19 +3870,19 @@
         <v>32469</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23810</v>
+        <v>23642</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42174</v>
+        <v>42818</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3202677370132945</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2348591935509041</v>
+        <v>0.2332000147631739</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4159925100304977</v>
+        <v>0.4223498133238589</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>21181</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15017</v>
+        <v>14407</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26648</v>
+        <v>27447</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5359334258573416</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3799729844253617</v>
+        <v>0.3645468465436902</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6742710718256809</v>
+        <v>0.6944823206211752</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>47</v>
@@ -3920,19 +3920,19 @@
         <v>47731</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>39999</v>
+        <v>39763</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>53936</v>
+        <v>53413</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7716028425941989</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6466105028655722</v>
+        <v>0.6427939081736275</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8719079338220262</v>
+        <v>0.8634441947480148</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>69</v>
@@ -3941,19 +3941,19 @@
         <v>68912</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>59207</v>
+        <v>58563</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>77571</v>
+        <v>77739</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6797322629867055</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5840074899695024</v>
+        <v>0.5776501866761411</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7651408064490959</v>
+        <v>0.7667999852368261</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>2929</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6994</v>
+        <v>7461</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1388209944797095</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04389942951621296</v>
+        <v>0.04348552823968544</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3315041637323192</v>
+        <v>0.3536569180617185</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -4066,19 +4066,19 @@
         <v>9833</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4381</v>
+        <v>5159</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16273</v>
+        <v>16784</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3190388986837722</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1421572868647899</v>
+        <v>0.1673924213404187</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5279913487171802</v>
+        <v>0.5445513259550252</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -4087,19 +4087,19 @@
         <v>12762</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6921</v>
+        <v>7131</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20327</v>
+        <v>21150</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2458076372248265</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1333062606913511</v>
+        <v>0.1373498845746369</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.391515526545982</v>
+        <v>0.4073793872315658</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>18168</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14103</v>
+        <v>13636</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20171</v>
+        <v>20180</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8611790055202905</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6684958362676807</v>
+        <v>0.6463430819382832</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.956100570483787</v>
+        <v>0.9565144717603146</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -4137,19 +4137,19 @@
         <v>20988</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14548</v>
+        <v>14037</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26440</v>
+        <v>25662</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6809611013162279</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4720086512828193</v>
+        <v>0.455448674044975</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8578427131352101</v>
+        <v>0.8326075786595821</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>37</v>
@@ -4158,19 +4158,19 @@
         <v>39156</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>31591</v>
+        <v>30768</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>44997</v>
+        <v>44787</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7541923627751735</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.608484473454018</v>
+        <v>0.592620612768434</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.866693739308649</v>
+        <v>0.8626501154253631</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>53716</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41520</v>
+        <v>41864</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65686</v>
+        <v>67796</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3372191168324922</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2606552240369022</v>
+        <v>0.2628147233379066</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4123619944760615</v>
+        <v>0.4256120822722517</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>59</v>
@@ -4283,19 +4283,19 @@
         <v>65647</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>52355</v>
+        <v>52503</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>81263</v>
+        <v>82259</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2445246450486675</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1950162777782999</v>
+        <v>0.1955654125094698</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3026936603199359</v>
+        <v>0.3064048092873459</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>109</v>
@@ -4304,19 +4304,19 @@
         <v>119362</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>101486</v>
+        <v>100932</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>139387</v>
+        <v>138743</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2790427273524443</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2372509371483369</v>
+        <v>0.2359560388591452</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.325856530564763</v>
+        <v>0.3243508958468161</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>105575</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>93605</v>
+        <v>91495</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>117771</v>
+        <v>117427</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6627808831675078</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5876380055239385</v>
+        <v>0.5743879177277484</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7393447759630978</v>
+        <v>0.7371852766620934</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>187</v>
@@ -4354,19 +4354,19 @@
         <v>202819</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>187203</v>
+        <v>186207</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>216111</v>
+        <v>215963</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7554753549513324</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6973063396800637</v>
+        <v>0.6935951907126542</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8049837222217001</v>
+        <v>0.8044345874905304</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>288</v>
@@ -4375,19 +4375,19 @@
         <v>308395</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>288370</v>
+        <v>289014</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>326271</v>
+        <v>326825</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7209572726475557</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6741434694352371</v>
+        <v>0.6756491041531839</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7627490628516631</v>
+        <v>0.7640439611408547</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>16293</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10566</v>
+        <v>10053</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23378</v>
+        <v>22755</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3385507307231257</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2195407720882505</v>
+        <v>0.2088902667574709</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4857562945850111</v>
+        <v>0.4728247680143016</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -4740,19 +4740,19 @@
         <v>8864</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4764</v>
+        <v>4605</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14619</v>
+        <v>14109</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1783929935648795</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09587529667602829</v>
+        <v>0.0926767357127722</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2942276411381755</v>
+        <v>0.2839625954858415</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -4761,19 +4761,19 @@
         <v>25157</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17759</v>
+        <v>17961</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34364</v>
+        <v>34614</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2571939938291966</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1815575459289397</v>
+        <v>0.1836244992484576</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3513174989060376</v>
+        <v>0.3538741664867205</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>31833</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24748</v>
+        <v>25371</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37560</v>
+        <v>38073</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6614492692768743</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5142437054149888</v>
+        <v>0.5271752319856985</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7804592279117497</v>
+        <v>0.7911097332425295</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>58</v>
@@ -4811,19 +4811,19 @@
         <v>40823</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35068</v>
+        <v>35578</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44923</v>
+        <v>45082</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8216070064351205</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7057723588618243</v>
+        <v>0.716037404514158</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9041247033239715</v>
+        <v>0.9073232642872271</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>90</v>
@@ -4832,19 +4832,19 @@
         <v>72657</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>63450</v>
+        <v>63200</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>80055</v>
+        <v>79853</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7428060061708034</v>
+        <v>0.7428060061708033</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6486825010939624</v>
+        <v>0.6461258335132796</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8184424540710602</v>
+        <v>0.8163755007515422</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>15016</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9382</v>
+        <v>8913</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21529</v>
+        <v>21270</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2940350345777537</v>
+        <v>0.2940350345777538</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1837170824564709</v>
+        <v>0.1745194008855588</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4215595913946268</v>
+        <v>0.4164932932739139</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -4957,19 +4957,19 @@
         <v>16182</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11466</v>
+        <v>11233</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22113</v>
+        <v>22552</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2389250170071427</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1692902851841074</v>
+        <v>0.1658568806873168</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3264851913877162</v>
+        <v>0.3329759677969129</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -4978,19 +4978,19 @@
         <v>31198</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23171</v>
+        <v>23328</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39617</v>
+        <v>40113</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2626156057103172</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1950435637355029</v>
+        <v>0.196367169387999</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3334812558746215</v>
+        <v>0.3376601043929973</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>36053</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>29540</v>
+        <v>29799</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>41687</v>
+        <v>42156</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7059649654222464</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5784404086053738</v>
+        <v>0.583506706726087</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8162829175435293</v>
+        <v>0.8254805991144415</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>73</v>
@@ -5028,19 +5028,19 @@
         <v>51547</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>45616</v>
+        <v>45177</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>56263</v>
+        <v>56496</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7610749829928576</v>
+        <v>0.7610749829928574</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6735148086122855</v>
+        <v>0.6670240322030871</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8307097148158926</v>
+        <v>0.8341431193126846</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>118</v>
@@ -5049,19 +5049,19 @@
         <v>87600</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>79181</v>
+        <v>78685</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>95627</v>
+        <v>95470</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7373843942896826</v>
+        <v>0.7373843942896827</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6665187441253785</v>
+        <v>0.6623398956070027</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8049564362644969</v>
+        <v>0.803632830612001</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>16798</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10271</v>
+        <v>10933</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23926</v>
+        <v>24491</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3125363421542732</v>
+        <v>0.3125363421542731</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.191103084837943</v>
+        <v>0.2034117549440975</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4451689057980551</v>
+        <v>0.4556841964932152</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -5174,19 +5174,19 @@
         <v>15759</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10278</v>
+        <v>10543</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23002</v>
+        <v>22914</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2517529293176826</v>
+        <v>0.2517529293176825</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1641907378879603</v>
+        <v>0.1684293354836188</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3674668116105066</v>
+        <v>0.3660545403988298</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -5195,19 +5195,19 @@
         <v>32556</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23518</v>
+        <v>24098</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42135</v>
+        <v>43255</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2798329864520953</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2021485426710001</v>
+        <v>0.207130221069631</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3621636877730939</v>
+        <v>0.3717899398292803</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>36948</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29820</v>
+        <v>29255</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>43475</v>
+        <v>42813</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6874636578457268</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5548310942019449</v>
+        <v>0.5443158035067848</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.808896915162057</v>
+        <v>0.7965882450559025</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>62</v>
@@ -5245,19 +5245,19 @@
         <v>46837</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>39594</v>
+        <v>39682</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52318</v>
+        <v>52053</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7482470706823174</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6325331883894934</v>
+        <v>0.6339454596011702</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8358092621120398</v>
+        <v>0.8315706645163814</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>100</v>
@@ -5266,19 +5266,19 @@
         <v>83786</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>74207</v>
+        <v>73087</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>92824</v>
+        <v>92244</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7201670135479048</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6378363122269058</v>
+        <v>0.6282100601707196</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7978514573289999</v>
+        <v>0.792869778930369</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>18083</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12031</v>
+        <v>11895</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25822</v>
+        <v>25646</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3600479623297447</v>
+        <v>0.3600479623297448</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2395503123715998</v>
+        <v>0.2368373440022274</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5141182110134342</v>
+        <v>0.5106223608053257</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -5391,19 +5391,19 @@
         <v>16014</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10099</v>
+        <v>10183</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24221</v>
+        <v>25751</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2639336946272139</v>
+        <v>0.263933694627214</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.166455359563811</v>
+        <v>0.1678301009382973</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3991993509247377</v>
+        <v>0.4244161142297571</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>42</v>
@@ -5412,19 +5412,19 @@
         <v>34097</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24860</v>
+        <v>25267</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45975</v>
+        <v>45732</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3074635692473204</v>
+        <v>0.3074635692473205</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2241707091310363</v>
+        <v>0.2278385782386581</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4145718882654111</v>
+        <v>0.4123820132044756</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>32142</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24403</v>
+        <v>24579</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>38194</v>
+        <v>38330</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6399520376702553</v>
+        <v>0.6399520376702554</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4858817889865659</v>
+        <v>0.4893776391946742</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7604496876284003</v>
+        <v>0.7631626559977727</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>60</v>
@@ -5462,19 +5462,19 @@
         <v>44659</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36452</v>
+        <v>34922</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>50574</v>
+        <v>50490</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7360663053727859</v>
+        <v>0.7360663053727861</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6008006490752621</v>
+        <v>0.575583885770243</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.833544640436189</v>
+        <v>0.8321698990617027</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>96</v>
@@ -5483,19 +5483,19 @@
         <v>76801</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>64923</v>
+        <v>65166</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>86038</v>
+        <v>85631</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6925364307526797</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5854281117345891</v>
+        <v>0.5876179867955242</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7758292908689638</v>
+        <v>0.7721614217613417</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>66191</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>53805</v>
+        <v>53024</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80482</v>
+        <v>80190</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3257935765384612</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2648317135297178</v>
+        <v>0.2609886853928517</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3961351406550377</v>
+        <v>0.3946983425880214</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>84</v>
@@ -5608,19 +5608,19 @@
         <v>56818</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45763</v>
+        <v>45601</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>70375</v>
+        <v>70253</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2360691718885298</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1901369583282929</v>
+        <v>0.1894617391905537</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2923932270665187</v>
+        <v>0.2918870210567798</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>159</v>
@@ -5629,19 +5629,19 @@
         <v>123009</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>105320</v>
+        <v>106576</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>142069</v>
+        <v>143052</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2771392545323206</v>
+        <v>0.2771392545323205</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2372865267694618</v>
+        <v>0.2401155952552492</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3200830401545127</v>
+        <v>0.3222970201555571</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>136976</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>122685</v>
+        <v>122977</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>149362</v>
+        <v>150143</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6742064234615387</v>
+        <v>0.6742064234615388</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6038648593449626</v>
+        <v>0.6053016574119786</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7351682864702822</v>
+        <v>0.7390113146071482</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>253</v>
@@ -5679,19 +5679,19 @@
         <v>183867</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>170310</v>
+        <v>170432</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>194922</v>
+        <v>195084</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7639308281114703</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7076067729334815</v>
+        <v>0.7081129789432206</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8098630416717073</v>
+        <v>0.8105382608094465</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>404</v>
@@ -5700,19 +5700,19 @@
         <v>320842</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>301782</v>
+        <v>300799</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>338531</v>
+        <v>337275</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7228607454676795</v>
+        <v>0.7228607454676793</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6799169598454873</v>
+        <v>0.6777029798444431</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7627134732305382</v>
+        <v>0.7598844047447509</v>
       </c>
     </row>
     <row r="18">
